--- a/Document/3.Report/이승원/캐릭터 기획 .xlsx
+++ b/Document/3.Report/이승원/캐릭터 기획 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swlee\Desktop\Project_GoodLife\Project_GoodLife\Document\3.Report\이승원\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\바르게살자\Project_GoodLife\Document\3.Report\이승원\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CE0FBB-8E56-4C11-822D-6CD79C14941B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E05A3-652E-47C9-8262-4ABEDE251123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1125" windowWidth="29685" windowHeight="18150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="컨셉" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="215">
   <si>
     <t>▶ 개요</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,23 +476,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>토글, 이속 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">퀵슬롯 아이템에 따라 씨앗심기,비료주기 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">공격 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1) 별도의 스킬 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 전투맵에서 상호작용키를 공격키로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1374,6 +1362,42 @@
       </rPr>
       <t>추후 제작 해금</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 전투맵에서 키보드 [방향키]를 공격키로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공통 정책 사용 방식과 제한 조건 ( 쿨타임, 지역제한 ) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작 키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 스타듀밸리 레퍼런스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 정책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임내에서 1시간이 10분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4시 부터 7시까지 스킵 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 행동 제한이 맞는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1950,7 +1974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2101,6 +2125,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2116,6 +2143,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2124,132 +2277,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2567,9 +2594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N180" sqref="N180"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2600,56 +2625,56 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
     </row>
     <row r="4" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1"/>
@@ -2739,7 +2764,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D13" s="28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E13" s="28"/>
     </row>
@@ -2870,12 +2895,12 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I23" s="5"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
@@ -2915,9 +2940,9 @@
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
       <c r="Q26" s="42"/>
       <c r="R26" s="42"/>
       <c r="S26" s="4" t="s">
@@ -2935,7 +2960,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="E27" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q27" s="42"/>
       <c r="R27" s="42"/>
@@ -2955,7 +2980,7 @@
     <row r="28" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="F28" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
@@ -2973,7 +2998,7 @@
     <row r="30" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="F30" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="T30" s="4" t="s">
         <v>97</v>
@@ -2982,19 +3007,19 @@
     <row r="31" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="G31" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="G32" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="G33" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3003,30 +3028,30 @@
     <row r="35" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
       <c r="F35" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="G36" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="G37" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="G38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="G39" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3034,7 +3059,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F41" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M41" s="4"/>
     </row>
@@ -3067,7 +3092,7 @@
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="E46" s="4"/>
       <c r="F46" s="31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
@@ -3080,7 +3105,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F48" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q48" s="42"/>
       <c r="R48" s="42"/>
@@ -3090,7 +3115,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="G49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q49" s="42"/>
       <c r="R49" s="42"/>
@@ -3102,7 +3127,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="G50" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q50" s="42"/>
       <c r="R50" s="42"/>
@@ -3114,7 +3139,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="G51" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q51" s="42"/>
       <c r="R51" s="42"/>
@@ -3134,7 +3159,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F53" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R53" s="42"/>
       <c r="S53" s="42"/>
@@ -3145,7 +3170,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="G54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.3">
@@ -3155,7 +3180,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E58" s="30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3166,7 +3191,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F59" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -3221,7 +3246,7 @@
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" s="31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -3275,7 +3300,7 @@
     <row r="63" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D63" s="3"/>
       <c r="E63" s="30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F63"/>
       <c r="G63" s="38"/>
@@ -3302,7 +3327,7 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F64" s="31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="U64" s="42"/>
       <c r="V64" s="42"/>
@@ -3347,7 +3372,7 @@
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" s="31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -3388,7 +3413,7 @@
     <row r="68" spans="1:31" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D68"/>
       <c r="E68" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F68"/>
       <c r="G68"/>
@@ -3415,7 +3440,7 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F69" s="31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="U69" s="5"/>
       <c r="V69" s="5"/>
@@ -3457,7 +3482,7 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F71" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U71" s="5"/>
       <c r="V71" s="5"/>
@@ -3552,7 +3577,7 @@
     <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C76" s="4"/>
       <c r="D76" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -3578,7 +3603,7 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -3626,7 +3651,7 @@
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -3674,7 +3699,7 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -3723,7 +3748,7 @@
     <row r="83" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="25"/>
       <c r="E83" s="31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="S83"/>
       <c r="T83"/>
@@ -3750,7 +3775,7 @@
     <row r="85" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="25"/>
       <c r="D85" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W85" s="42"/>
       <c r="X85" s="42"/>
@@ -3778,7 +3803,7 @@
     <row r="87" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="25"/>
       <c r="D87" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W87" s="42"/>
       <c r="X87" s="42"/>
@@ -3789,7 +3814,7 @@
       <c r="A88" s="25"/>
       <c r="D88" s="5"/>
       <c r="E88" s="31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S88"/>
       <c r="T88"/>
@@ -3801,7 +3826,7 @@
     <row r="90" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="25"/>
       <c r="E90" s="31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3810,7 +3835,7 @@
     <row r="92" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="25"/>
       <c r="E92" s="31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q92" s="30"/>
       <c r="V92" s="5"/>
@@ -3834,8 +3859,8 @@
       <c r="Q94" s="42"/>
       <c r="R94" s="42"/>
       <c r="S94" s="42"/>
-      <c r="T94" s="53"/>
-      <c r="U94" s="53"/>
+      <c r="T94" s="54"/>
+      <c r="U94" s="54"/>
       <c r="V94" s="42"/>
       <c r="W94" s="42"/>
       <c r="X94" s="42"/>
@@ -3884,7 +3909,7 @@
     <row r="100" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="25"/>
       <c r="D100" s="47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3893,13 +3918,13 @@
     <row r="102" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="25"/>
       <c r="E102" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="25"/>
       <c r="F103" s="31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3908,19 +3933,19 @@
     <row r="105" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="25"/>
       <c r="F105" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="25"/>
       <c r="G106" s="40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="25"/>
       <c r="G107" s="40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3930,14 +3955,14 @@
       <c r="A109" s="25"/>
       <c r="D109" s="32"/>
       <c r="E109" s="30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="25"/>
       <c r="D110" s="32"/>
       <c r="F110" s="31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3948,19 +3973,19 @@
       <c r="A112" s="25"/>
       <c r="D112" s="32"/>
       <c r="F112" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="25"/>
       <c r="G113" s="40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="25"/>
       <c r="G114" s="40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3969,22 +3994,22 @@
     <row r="116" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="25"/>
       <c r="E116" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="25"/>
       <c r="F117" s="31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="25"/>
       <c r="V118" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Y118" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AB118" s="4" t="s">
         <v>83</v>
@@ -3993,34 +4018,34 @@
     <row r="119" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="25"/>
       <c r="F119" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="25"/>
       <c r="G120" s="40" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="V120" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Y120" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AB120" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="25"/>
       <c r="X121" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Y121" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Z121" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4032,34 +4057,34 @@
     <row r="124" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="25"/>
       <c r="F124" s="48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="V124" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="X124" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z124" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="X124" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z124" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="125" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="25"/>
       <c r="G125" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="25"/>
       <c r="V126" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="X126" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Z126" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -4068,18 +4093,18 @@
     <row r="128" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="25"/>
       <c r="E128" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F129" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="131" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F131" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -4089,7 +4114,7 @@
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
@@ -4107,7 +4132,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
@@ -4152,15 +4177,17 @@
       <c r="E139" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F139" s="52" t="s">
+      <c r="F139" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="G139" s="52"/>
-      <c r="H139" s="52"/>
-      <c r="I139" s="52"/>
-      <c r="J139" s="52"/>
+      <c r="G139" s="53"/>
+      <c r="H139" s="53"/>
+      <c r="I139" s="53"/>
+      <c r="J139" s="53"/>
       <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
+      <c r="L139" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
     </row>
@@ -4181,7 +4208,9 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
+      <c r="L140" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
     </row>
@@ -4199,7 +4228,9 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
+      <c r="L141" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
     </row>
@@ -4275,7 +4306,7 @@
         <v>82</v>
       </c>
       <c r="F145" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
@@ -4325,7 +4356,7 @@
       <c r="E148" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F148" s="35" t="s">
+      <c r="F148" s="50" t="s">
         <v>109</v>
       </c>
       <c r="G148" s="4"/>
@@ -4351,15 +4382,9 @@
     </row>
     <row r="150" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C150" s="4"/>
-      <c r="D150" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F150" s="35" t="s">
-        <v>110</v>
-      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="35"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
@@ -4395,11 +4420,9 @@
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>113</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
@@ -4413,7 +4436,7 @@
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
@@ -4466,7 +4489,7 @@
     <row r="160" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B160" s="4"/>
       <c r="C160" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -4495,7 +4518,7 @@
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L161" s="41"/>
       <c r="P161" s="4"/>
@@ -4514,7 +4537,7 @@
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
@@ -4539,48 +4562,48 @@
     </row>
     <row r="164" spans="2:25" x14ac:dyDescent="0.3">
       <c r="E164" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="2:25" x14ac:dyDescent="0.3">
       <c r="E166" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D168" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="2:25" x14ac:dyDescent="0.3">
       <c r="E170" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="2:25" x14ac:dyDescent="0.3">
       <c r="F171" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J171" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="2:25" x14ac:dyDescent="0.3">
       <c r="G172" s="40" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J172" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="2:25" x14ac:dyDescent="0.3">
       <c r="G173" s="40" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175" spans="2:25" x14ac:dyDescent="0.3">
       <c r="F175" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="2:25" x14ac:dyDescent="0.3">
@@ -4598,7 +4621,7 @@
     </row>
     <row r="177" spans="2:25" x14ac:dyDescent="0.3">
       <c r="F177" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="2:25" x14ac:dyDescent="0.3">
@@ -4607,7 +4630,7 @@
       <c r="D178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
@@ -4708,22 +4731,22 @@
     </row>
     <row r="182" spans="2:25" x14ac:dyDescent="0.3">
       <c r="F182" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="2:25" x14ac:dyDescent="0.3">
       <c r="E183" s="4"/>
       <c r="G183" s="40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J183" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="2:25" x14ac:dyDescent="0.3">
       <c r="E184" s="4"/>
       <c r="G184" s="40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J184" s="49">
         <v>3</v>
@@ -4737,58 +4760,58 @@
     </row>
     <row r="187" spans="2:25" x14ac:dyDescent="0.3">
       <c r="F187" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189" spans="2:25" x14ac:dyDescent="0.3">
       <c r="F189" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190" spans="2:25" x14ac:dyDescent="0.3">
       <c r="G190" s="40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E193" s="30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F194" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="2:24" x14ac:dyDescent="0.3">
       <c r="G195" s="40" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J195" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196" spans="2:24" x14ac:dyDescent="0.3">
       <c r="G196" s="40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J196" s="40" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F198" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F200" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="201" spans="2:24" x14ac:dyDescent="0.3">
       <c r="G201" s="40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203" spans="2:24" x14ac:dyDescent="0.3">
@@ -4818,27 +4841,27 @@
     </row>
     <row r="204" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E204" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F205" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="206" spans="2:24" x14ac:dyDescent="0.3">
       <c r="G206" s="45" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="2:24" x14ac:dyDescent="0.3">
       <c r="G207" s="45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="213" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E213" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="222" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4885,9 +4908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:X56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:I4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4896,10 +4917,10 @@
   <sheetData>
     <row r="1" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
@@ -4907,12 +4928,12 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
       <c r="J3" s="4" t="s">
         <v>75</v>
       </c>
@@ -4921,20 +4942,20 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="71"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -4945,298 +4966,307 @@
       <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="71" t="s">
+      <c r="E9" s="81"/>
+      <c r="F9" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59" t="s">
+      <c r="G9" s="89"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="91">
         <v>100</v>
       </c>
-      <c r="E10" s="75"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="73"/>
+      <c r="I10" s="91"/>
       <c r="J10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="63"/>
+      <c r="M10" s="80"/>
     </row>
     <row r="11" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="56">
         <v>100</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="64" t="s">
+      <c r="I11" s="92"/>
+      <c r="J11" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="84"/>
     </row>
     <row r="12" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="56">
         <v>100</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="76" t="s">
+      <c r="E12" s="58"/>
+      <c r="F12" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="67" t="s">
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="68"/>
-      <c r="L12" s="69" t="s">
+      <c r="K12" s="86"/>
+      <c r="L12" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="70"/>
-    </row>
-    <row r="17" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="84" t="s">
+      <c r="M12" s="88"/>
+    </row>
+    <row r="17" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="85"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D19" s="58" t="s">
+      <c r="D18" s="78"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="D19" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D20" s="58" t="s">
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="D20" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-    </row>
-    <row r="21" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="80" t="s">
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+    </row>
+    <row r="21" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D23" s="53" t="s">
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="75"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="D23" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C25" s="83" t="s">
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C25" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="83"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D26" s="58" t="s">
+      <c r="D25" s="76"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="D26" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="58"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="58" t="s">
+      <c r="E26" s="71"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="E27" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="58" t="s">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="E29" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E31" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="86" t="s">
+      <c r="F31" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86" t="s">
+      <c r="G31" s="57"/>
+      <c r="H31" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E32" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="60" t="s">
+      <c r="F32" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60" t="s">
+      <c r="G32" s="56"/>
+      <c r="H32" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="Q32" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E33" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60" t="s">
+      <c r="G33" s="56"/>
+      <c r="H33" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E34" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="87"/>
-      <c r="H34" s="60" t="s">
+      <c r="G34" s="72"/>
+      <c r="H34" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="Q34" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E35" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="87" t="s">
+      <c r="F35" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="87"/>
-      <c r="H35" s="60" t="s">
+      <c r="G35" s="72"/>
+      <c r="H35" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E36" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="87" t="s">
+      <c r="F36" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="60" t="s">
+      <c r="G36" s="72"/>
+      <c r="H36" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="Q36" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E37" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="87" t="s">
+      <c r="F37" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="87"/>
-      <c r="H37" s="60" t="s">
+      <c r="G37" s="72"/>
+      <c r="H37" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
@@ -5254,7 +5284,9 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="Q38" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -5267,11 +5299,11 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="99" t="s">
+      <c r="E39" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
@@ -5281,7 +5313,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
+      <c r="Q39" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
@@ -5291,32 +5325,32 @@
       <c r="X39" s="3"/>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="58"/>
+      <c r="C41" s="71"/>
     </row>
     <row r="42" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3"/>
-      <c r="C42" s="90" t="s">
+      <c r="C42" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="90"/>
+      <c r="D42" s="70"/>
       <c r="E42" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="90" t="s">
+      <c r="F42" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="97" t="s">
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M42" s="98"/>
+      <c r="M42" s="66"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -5330,29 +5364,29 @@
       <c r="X42" s="3"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C43" s="88" t="s">
+      <c r="C43" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="88"/>
+      <c r="D43" s="68"/>
       <c r="E43" s="21">
         <v>3</v>
       </c>
-      <c r="F43" s="88" t="s">
+      <c r="F43" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88" t="s">
+      <c r="G43" s="68"/>
+      <c r="H43" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88" t="s">
+      <c r="I43" s="68"/>
+      <c r="J43" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="K43" s="88"/>
-      <c r="L43" s="93" t="s">
+      <c r="K43" s="68"/>
+      <c r="L43" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="M43" s="94"/>
+      <c r="M43" s="62"/>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C44" s="22" t="s">
@@ -5362,48 +5396,48 @@
       <c r="E44" s="22">
         <v>1</v>
       </c>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="94"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="62"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C45" s="89" t="s">
+      <c r="C45" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="89"/>
+      <c r="D45" s="69"/>
       <c r="E45" s="22">
         <v>1</v>
       </c>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="94"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="62"/>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C46" s="89" t="s">
+      <c r="C46" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="89"/>
+      <c r="D46" s="69"/>
       <c r="E46" s="22">
         <v>3</v>
       </c>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="96"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="64"/>
     </row>
     <row r="48" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
@@ -5432,22 +5466,22 @@
     </row>
     <row r="49" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="58"/>
+      <c r="C50" s="71"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C52" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="61" t="s">
+      <c r="D52" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="91"/>
-      <c r="F52" s="91"/>
-      <c r="G52" s="91"/>
-      <c r="H52" s="92"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="60"/>
       <c r="I52" s="15" t="s">
         <v>63</v>
       </c>
@@ -5456,54 +5490,96 @@
       <c r="C53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C54" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
       <c r="I54" s="15"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C55" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="61" t="s">
+      <c r="D55" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="92"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="60"/>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C56" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="60" t="s">
+      <c r="D56" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
       <c r="I56" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="E27:P27"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H43:I46"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="H37:M37"/>
     <mergeCell ref="H31:M31"/>
     <mergeCell ref="D56:H56"/>
@@ -5520,48 +5596,6 @@
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="F43:G46"/>
-    <mergeCell ref="H43:I46"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="E27:P27"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
